--- a/DSA_Learning_Plan.xlsx
+++ b/DSA_Learning_Plan.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1-4" sheetId="1" r:id="rId1"/>
     <sheet name="Week 5-12" sheetId="2" r:id="rId2"/>
-    <sheet name="Week3" sheetId="3" r:id="rId3"/>
+    <sheet name="Week 13" sheetId="3" r:id="rId3"/>
     <sheet name="Week4" sheetId="4" r:id="rId4"/>
     <sheet name="Week5" sheetId="5" r:id="rId5"/>
     <sheet name="Week6" sheetId="6" r:id="rId6"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="142">
   <si>
     <t>Topic</t>
   </si>
@@ -427,6 +427,33 @@
   </si>
   <si>
     <t>https://www.techinterviewhandbook.org/coding-interview-study-plan/</t>
+  </si>
+  <si>
+    <t>DSA practice + System Design</t>
+  </si>
+  <si>
+    <t>Leet code + HackerRank + SYSDesign Questions + Behavioural Questions</t>
+  </si>
+  <si>
+    <t>Sat - Fri</t>
+  </si>
+  <si>
+    <t>19 - 25 of Oct</t>
+  </si>
+  <si>
+    <t>Actual Time Spent</t>
+  </si>
+  <si>
+    <t>Problems Solved(Mastered)</t>
+  </si>
+  <si>
+    <t>Coverage %</t>
+  </si>
+  <si>
+    <t>Confidance %</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -502,7 +529,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,8 +542,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -539,25 +578,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,9 +613,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -626,12 +666,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,6 +673,32 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -922,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,9 +992,10 @@
     <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
@@ -948,949 +1009,1071 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
+      <c r="E5" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="K10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
+      <c r="K10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
+      <c r="E12" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>4</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>5</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="E20" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>1</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+      <c r="E27" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>2</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>3</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>4</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>5</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="13"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="13"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="22"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="13"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="13"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="13"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="13"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="13"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="13"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="13"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="13"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="13"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="13"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="13"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="13"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="13"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="22"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="13"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="22"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="13"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="13"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="13"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="13"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="13"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="22"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="13"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="13"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="22"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="18"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="13"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="22"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="18"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="13"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="13"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="18"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="13"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="22"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="13"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="22"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="13"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="22"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="13"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="18"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="13"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="22"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="18"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="13"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="22"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="18"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="13"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="22"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="13"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="22"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="18"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="13"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="22"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="13"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="22"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="13"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="22"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="18"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="13"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="22"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="18"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="13"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="13"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="22"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="13"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="22"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="13"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="22"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="18"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="13"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="22"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="18"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="13"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="22"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="13"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="22"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="13"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="22"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="13"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="22"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A105:D105"/>
     <mergeCell ref="A2:D2"/>
@@ -1902,7 +2085,6 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="U4:X4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://www.techinterviewhandbook.org/algorithms/array/"/>
@@ -1945,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1956,1318 +2138,1666 @@
     <col min="2" max="2" width="50.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="61.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-    </row>
-    <row r="2" spans="1:19" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="O3" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="N3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="E5" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="E6" s="39"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="E7" s="39"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="E8" s="39"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="E9" s="39"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="E10" s="39"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="E11" s="39"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="E12" s="39"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="E13" s="39"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="E14" s="39"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="E15" s="39"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="E16" s="39"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="39"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="E21" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+    <row r="23" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>2</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+    <row r="24" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>3</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+    <row r="25" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>4</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+    <row r="26" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>5</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+    <row r="27" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>6</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+    <row r="28" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>7</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+    <row r="29" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>8</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+    <row r="30" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>9</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+    <row r="31" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>10</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+    <row r="32" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>11</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+    <row r="33" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>12</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+      <c r="E37" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+      <c r="E38" s="39"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+      <c r="E39" s="39"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>3</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+      <c r="E40" s="39"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>4</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+      <c r="E41" s="39"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>5</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+      <c r="E42" s="39"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>6</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+      <c r="E43" s="39"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>7</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="E44" s="39"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
         <v>8</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+      <c r="E45" s="39"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
         <v>9</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="C46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+      <c r="E46" s="39"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
         <v>10</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="39"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+    </row>
+    <row r="48" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+      <c r="E51" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>1</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="9" t="s">
+      <c r="C52" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
+      <c r="E52" s="39"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
         <v>2</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="C53" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+      <c r="E53" s="39"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+    </row>
+    <row r="54" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
         <v>3</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="9" t="s">
+      <c r="C54" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+      <c r="E54" s="39"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>4</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+      <c r="E55" s="39"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+    </row>
+    <row r="56" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
         <v>5</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="C56" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
+      <c r="E56" s="39"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
         <v>6</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="9" t="s">
+      <c r="C57" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="6">
+      <c r="E57" s="39"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+    </row>
+    <row r="58" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
         <v>7</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
+      <c r="E58" s="39"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+    </row>
+    <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
         <v>8</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="C59" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="39"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+    </row>
+    <row r="60" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="6">
+      <c r="E62" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
         <v>1</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="9" t="s">
+      <c r="C63" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
+      <c r="E63" s="39"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+    </row>
+    <row r="64" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
         <v>2</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="9" t="s">
+      <c r="C64" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+      <c r="E64" s="39"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+    </row>
+    <row r="65" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
         <v>3</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="9" t="s">
+      <c r="C65" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
+      <c r="E65" s="39"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+    </row>
+    <row r="66" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
         <v>4</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="9" t="s">
+      <c r="C66" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
+      <c r="E66" s="39"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+    </row>
+    <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
         <v>5</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="9" t="s">
+      <c r="C67" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
+      <c r="E67" s="39"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+    </row>
+    <row r="68" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
         <v>6</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="9" t="s">
+      <c r="C68" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
+      <c r="E68" s="39"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+    </row>
+    <row r="69" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
         <v>7</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="9" t="s">
+      <c r="C69" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
+      <c r="E69" s="39"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+    </row>
+    <row r="70" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
         <v>8</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="9" t="s">
+      <c r="C70" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E70" s="39"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+    </row>
+    <row r="71" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
+      <c r="E73" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
         <v>1</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="9" t="s">
+      <c r="C74" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
+      <c r="E74" s="39"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+    </row>
+    <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
         <v>2</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="9" t="s">
+      <c r="C75" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
+      <c r="E75" s="39"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+    </row>
+    <row r="76" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
         <v>3</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="9" t="s">
+      <c r="C76" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6">
+      <c r="E76" s="39"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+    </row>
+    <row r="77" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
         <v>4</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D77" s="9" t="s">
+      <c r="C77" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="6">
+      <c r="E77" s="39"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+    </row>
+    <row r="78" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
         <v>5</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D78" s="9" t="s">
+      <c r="C78" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="6">
+      <c r="E78" s="39"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+    </row>
+    <row r="79" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
         <v>6</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="C79" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="6">
+      <c r="E79" s="39"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+    </row>
+    <row r="80" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
         <v>7</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="9" t="s">
+      <c r="C80" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="6">
+      <c r="E80" s="39"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+    </row>
+    <row r="81" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
         <v>8</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="9" t="s">
+      <c r="C81" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="6">
+      <c r="E81" s="39"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+    </row>
+    <row r="82" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
         <v>9</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" s="9" t="s">
+      <c r="C82" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="39"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+    </row>
+    <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+    </row>
+    <row r="85" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="6">
+      <c r="E85" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
         <v>1</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" s="9" t="s">
+      <c r="C86" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="6">
+      <c r="E86" s="39"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+    </row>
+    <row r="87" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
         <v>2</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="9" t="s">
+      <c r="C87" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="6">
+      <c r="E87" s="39"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+    </row>
+    <row r="88" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
         <v>3</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="9" t="s">
+      <c r="C88" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="6">
+      <c r="E88" s="39"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+    </row>
+    <row r="89" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
         <v>4</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" s="9" t="s">
+      <c r="C89" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="6">
+      <c r="E89" s="39"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+    </row>
+    <row r="90" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
         <v>5</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" s="9" t="s">
+      <c r="C90" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="6">
+      <c r="E90" s="39"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+    </row>
+    <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
         <v>6</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" s="9" t="s">
+      <c r="C91" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="6">
+      <c r="E91" s="39"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+    </row>
+    <row r="92" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
         <v>7</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" s="9" t="s">
+      <c r="C92" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="6">
+      <c r="E92" s="39"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+    </row>
+    <row r="93" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
         <v>8</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E93" s="39"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+    </row>
+    <row r="94" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+    </row>
+    <row r="96" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="6">
+      <c r="E96" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F96" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
         <v>1</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="6">
+      <c r="E97" s="39"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+    </row>
+    <row r="98" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
         <v>2</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="6">
+      <c r="E98" s="39"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+    </row>
+    <row r="99" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
         <v>3</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="6">
+      <c r="E99" s="39"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+    </row>
+    <row r="100" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
         <v>4</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="6">
+      <c r="E100" s="39"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+    </row>
+    <row r="101" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
         <v>5</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="6">
+      <c r="E101" s="39"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+    </row>
+    <row r="102" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
         <v>6</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="6">
+      <c r="E102" s="39"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+    </row>
+    <row r="103" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
         <v>7</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="6">
+      <c r="E103" s="39"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+    </row>
+    <row r="104" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
         <v>8</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C104" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="E104" s="39"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3364,13 +3894,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="61.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
